--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_195.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_195.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,718 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:01:34.800000', '0:01:46.960000'), ('0:00:40.820000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:27.460000', '0:00:36.020000'), ('0:01:21.100000', '0:01:27.580000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5046052631578948</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[('0:00:00.421247', '0:00:19.441473')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[('0:02:07.449092', '0:02:19.418979')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.56, 69.42)]</t>
+          <t>[('0:00:02.680000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:32.200000', '0:00:33.700000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:13.500000', '0:00:21.900000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:08.300000', '0:00:12.960000'), ('0:00:00.780000', '0:00:05.260000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54)]</t>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(87.44, 110.44)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(79.12, 99.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
